--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.995138295880209</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.066167906916869</v>
+      </c>
+      <c r="D16">
+        <v>0.8099588618061759</v>
+      </c>
+      <c r="E16">
+        <v>1.027829301863287</v>
+      </c>
+      <c r="F16">
+        <v>1.066167906916869</v>
+      </c>
+      <c r="G16">
+        <v>0.8952340248181317</v>
+      </c>
+      <c r="H16">
+        <v>1.085230290652888</v>
+      </c>
+      <c r="I16">
+        <v>1.040276857054268</v>
+      </c>
+      <c r="J16">
+        <v>0.8099588618061759</v>
+      </c>
+      <c r="K16">
+        <v>0.9188940818347316</v>
+      </c>
+      <c r="L16">
+        <v>0.9925309943758004</v>
+      </c>
+      <c r="M16">
+        <v>0.9874495405186033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.066167906916869</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9646159999999996</v>
+        <v>1.066167906916869</v>
       </c>
       <c r="D10">
-        <v>0.7143520000000005</v>
+        <v>0.8099588618061759</v>
       </c>
       <c r="E10">
-        <v>1.115275999999997</v>
+        <v>1.027829301863287</v>
       </c>
       <c r="F10">
-        <v>0.9646159999999996</v>
+        <v>1.066167906916869</v>
       </c>
       <c r="G10">
-        <v>0.7909080000000023</v>
+        <v>0.8952340248181317</v>
       </c>
       <c r="H10">
-        <v>1.367271999999999</v>
+        <v>1.085230290652888</v>
       </c>
       <c r="I10">
-        <v>1.087151999999998</v>
+        <v>1.040276857054268</v>
       </c>
       <c r="J10">
-        <v>0.7143520000000005</v>
+        <v>0.8099588618061759</v>
       </c>
       <c r="K10">
-        <v>0.9148139999999987</v>
+        <v>0.9188940818347316</v>
       </c>
       <c r="L10">
-        <v>0.9397149999999992</v>
+        <v>0.9925309943758004</v>
       </c>
       <c r="M10">
-        <v>1.006595999999999</v>
+        <v>0.9874495405186033</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>0.9479613986047402</v>
       </c>
       <c r="D11">
-        <v>0.37</v>
+        <v>0.9430539209197296</v>
       </c>
       <c r="E11">
-        <v>1.23</v>
+        <v>1.039176103897089</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>0.9479613986047402</v>
       </c>
       <c r="G11">
-        <v>0.58</v>
+        <v>0.9349590174498704</v>
       </c>
       <c r="H11">
-        <v>1.69</v>
+        <v>1.147763790373659</v>
       </c>
       <c r="I11">
-        <v>1.19</v>
+        <v>1.013817346987879</v>
       </c>
       <c r="J11">
-        <v>0.37</v>
+        <v>0.9430539209197296</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.9911150124084094</v>
       </c>
       <c r="L11">
-        <v>0.895</v>
+        <v>0.9695382055065748</v>
       </c>
       <c r="M11">
-        <v>1.008333333333333</v>
+        <v>1.004455263038828</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9949522190336001</v>
+        <v>0.9478454218904558</v>
       </c>
       <c r="D12">
-        <v>0.6299189688320024</v>
+        <v>0.9447663093989092</v>
       </c>
       <c r="E12">
-        <v>1.130944102400001</v>
+        <v>1.038600983981753</v>
       </c>
       <c r="F12">
-        <v>0.9949522190336001</v>
+        <v>0.9478454218904558</v>
       </c>
       <c r="G12">
-        <v>0.7544326019072023</v>
+        <v>0.9360565720399935</v>
       </c>
       <c r="H12">
-        <v>1.394223664128001</v>
+        <v>1.146066676967094</v>
       </c>
       <c r="I12">
-        <v>1.105904788684794</v>
+        <v>1.013301727925444</v>
       </c>
       <c r="J12">
-        <v>0.6299189688320024</v>
+        <v>0.9447663093989092</v>
       </c>
       <c r="K12">
-        <v>0.8804315356160015</v>
+        <v>0.9916836466903309</v>
       </c>
       <c r="L12">
-        <v>0.9376918773248007</v>
+        <v>0.9697645342903934</v>
       </c>
       <c r="M12">
-        <v>1.001729390830933</v>
+        <v>1.004439615367275</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9919558868816298</v>
+        <v>0.9479067629627562</v>
       </c>
       <c r="D13">
-        <v>0.9952238808813222</v>
+        <v>0.9434117273001003</v>
       </c>
       <c r="E13">
-        <v>0.9951313150131709</v>
+        <v>1.039070717087051</v>
       </c>
       <c r="F13">
-        <v>0.9919558868816298</v>
+        <v>0.9479067629627562</v>
       </c>
       <c r="G13">
-        <v>0.992536226054725</v>
+        <v>0.9352068345844746</v>
       </c>
       <c r="H13">
-        <v>0.9965920879885471</v>
+        <v>1.147421995125292</v>
       </c>
       <c r="I13">
-        <v>0.9942953092046359</v>
+        <v>1.013663452452542</v>
       </c>
       <c r="J13">
-        <v>0.9952238808813222</v>
+        <v>0.9434117273001003</v>
       </c>
       <c r="K13">
-        <v>0.9951775979472466</v>
+        <v>0.9912412221935754</v>
       </c>
       <c r="L13">
-        <v>0.9935667424144382</v>
+        <v>0.9695739925781658</v>
       </c>
       <c r="M13">
-        <v>0.994289117670672</v>
+        <v>1.004446914918703</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9948006431056027</v>
+        <v>0.9646159999999996</v>
       </c>
       <c r="D14">
-        <v>1.016072100310265</v>
+        <v>0.7143520000000005</v>
       </c>
       <c r="E14">
-        <v>0.9847001417652971</v>
+        <v>1.115275999999997</v>
       </c>
       <c r="F14">
-        <v>0.9948006431056027</v>
+        <v>0.9646159999999996</v>
       </c>
       <c r="G14">
-        <v>1.004898962236324</v>
+        <v>0.7909080000000023</v>
       </c>
       <c r="H14">
-        <v>0.9721639649292282</v>
+        <v>1.367271999999999</v>
       </c>
       <c r="I14">
-        <v>0.9895120078572394</v>
+        <v>1.087151999999998</v>
       </c>
       <c r="J14">
-        <v>1.016072100310265</v>
+        <v>0.7143520000000005</v>
       </c>
       <c r="K14">
-        <v>1.000386121037781</v>
+        <v>0.9148139999999987</v>
       </c>
       <c r="L14">
-        <v>0.9975933820716918</v>
+        <v>0.9397149999999992</v>
       </c>
       <c r="M14">
-        <v>0.993691303367326</v>
+        <v>1.006595999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9801333066439487</v>
+        <v>0.99</v>
       </c>
       <c r="D15">
-        <v>1.071366385799256</v>
+        <v>0.37</v>
       </c>
       <c r="E15">
-        <v>0.9739668093533926</v>
+        <v>1.23</v>
       </c>
       <c r="F15">
-        <v>0.9801333066439487</v>
+        <v>0.99</v>
       </c>
       <c r="G15">
-        <v>1.038761087289167</v>
+        <v>0.58</v>
       </c>
       <c r="H15">
-        <v>0.9339298383575777</v>
+        <v>1.69</v>
       </c>
       <c r="I15">
-        <v>0.9726723478379107</v>
+        <v>1.19</v>
       </c>
       <c r="J15">
-        <v>1.071366385799256</v>
+        <v>0.37</v>
       </c>
       <c r="K15">
-        <v>1.022666597576324</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>1.001399952110136</v>
+        <v>0.895</v>
       </c>
       <c r="M15">
-        <v>0.995138295880209</v>
+        <v>1.008333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.066167906916869</v>
+        <v>0.9949522190336001</v>
       </c>
       <c r="D16">
-        <v>0.8099588618061759</v>
+        <v>0.6299189688320024</v>
       </c>
       <c r="E16">
-        <v>1.027829301863287</v>
+        <v>1.130944102400001</v>
       </c>
       <c r="F16">
-        <v>1.066167906916869</v>
+        <v>0.9949522190336001</v>
       </c>
       <c r="G16">
-        <v>0.8952340248181317</v>
+        <v>0.7544326019072023</v>
       </c>
       <c r="H16">
-        <v>1.085230290652888</v>
+        <v>1.394223664128001</v>
       </c>
       <c r="I16">
-        <v>1.040276857054268</v>
+        <v>1.105904788684794</v>
       </c>
       <c r="J16">
-        <v>0.8099588618061759</v>
+        <v>0.6299189688320024</v>
       </c>
       <c r="K16">
-        <v>0.9188940818347316</v>
+        <v>0.8804315356160015</v>
       </c>
       <c r="L16">
-        <v>0.9925309943758004</v>
+        <v>0.9376918773248007</v>
       </c>
       <c r="M16">
-        <v>0.9874495405186033</v>
+        <v>1.001729390830933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9919558868816298</v>
+      </c>
+      <c r="D17">
+        <v>0.9952238808813222</v>
+      </c>
+      <c r="E17">
+        <v>0.9951313150131709</v>
+      </c>
+      <c r="F17">
+        <v>0.9919558868816298</v>
+      </c>
+      <c r="G17">
+        <v>0.992536226054725</v>
+      </c>
+      <c r="H17">
+        <v>0.9965920879885471</v>
+      </c>
+      <c r="I17">
+        <v>0.9942953092046359</v>
+      </c>
+      <c r="J17">
+        <v>0.9952238808813222</v>
+      </c>
+      <c r="K17">
+        <v>0.9951775979472466</v>
+      </c>
+      <c r="L17">
+        <v>0.9935667424144382</v>
+      </c>
+      <c r="M17">
+        <v>0.994289117670672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9948006431056027</v>
+      </c>
+      <c r="D18">
+        <v>1.016072100310265</v>
+      </c>
+      <c r="E18">
+        <v>0.9847001417652971</v>
+      </c>
+      <c r="F18">
+        <v>0.9948006431056027</v>
+      </c>
+      <c r="G18">
+        <v>1.004898962236324</v>
+      </c>
+      <c r="H18">
+        <v>0.9721639649292282</v>
+      </c>
+      <c r="I18">
+        <v>0.9895120078572394</v>
+      </c>
+      <c r="J18">
+        <v>1.016072100310265</v>
+      </c>
+      <c r="K18">
+        <v>1.000386121037781</v>
+      </c>
+      <c r="L18">
+        <v>0.9975933820716918</v>
+      </c>
+      <c r="M18">
+        <v>0.993691303367326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9801333066439487</v>
+      </c>
+      <c r="D19">
+        <v>1.071366385799256</v>
+      </c>
+      <c r="E19">
+        <v>0.9739668093533926</v>
+      </c>
+      <c r="F19">
+        <v>0.9801333066439487</v>
+      </c>
+      <c r="G19">
+        <v>1.038761087289167</v>
+      </c>
+      <c r="H19">
+        <v>0.9339298383575777</v>
+      </c>
+      <c r="I19">
+        <v>0.9726723478379107</v>
+      </c>
+      <c r="J19">
+        <v>1.071366385799256</v>
+      </c>
+      <c r="K19">
+        <v>1.022666597576324</v>
+      </c>
+      <c r="L19">
+        <v>1.001399952110136</v>
+      </c>
+      <c r="M19">
+        <v>0.995138295880209</v>
       </c>
     </row>
   </sheetData>
